--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.23234</v>
+        <v>0.233202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24126</v>
+        <v>0.237315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239404</v>
+        <v>0.239215</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.232108</v>
+        <v>0.233028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239311</v>
+        <v>0.240462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240012</v>
+        <v>0.239899</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240777</v>
+        <v>0.241218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.247986</v>
+        <v>0.248288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250771</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246383</v>
+        <v>0.247787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.253565</v>
+        <v>0.253732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257632</v>
+        <v>0.257126</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.247555</v>
+        <v>0.247905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25587</v>
+        <v>0.255592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260315</v>
+        <v>0.260229</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25154</v>
+        <v>0.252907</v>
       </c>
       <c r="C7" t="n">
-        <v>0.259572</v>
+        <v>0.260106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266695</v>
+        <v>0.267232</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.255533</v>
+        <v>0.256182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264607</v>
+        <v>0.264883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.275276</v>
+        <v>0.274954</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.262761</v>
+        <v>0.263205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.274438</v>
+        <v>0.274339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256836</v>
+        <v>0.256036</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256171</v>
+        <v>0.256955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254574</v>
+        <v>0.254666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256437</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.256902</v>
+        <v>0.258952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25529</v>
+        <v>0.25607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257404</v>
+        <v>0.256789</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.259025</v>
+        <v>0.260179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.258648</v>
+        <v>0.259696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25914</v>
+        <v>0.260274</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.259582</v>
+        <v>0.259275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.259695</v>
+        <v>0.258496</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261548</v>
+        <v>0.260735</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.262242</v>
+        <v>0.261796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.260657</v>
+        <v>0.26211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.263036</v>
+        <v>0.262623</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264934</v>
+        <v>0.264019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.263886</v>
+        <v>0.264475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265072</v>
+        <v>0.264855</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264341</v>
+        <v>0.264844</v>
       </c>
       <c r="C16" t="n">
-        <v>0.264904</v>
+        <v>0.265935</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26705</v>
+        <v>0.26575</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.264709</v>
+        <v>0.265244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.267555</v>
+        <v>0.26819</v>
       </c>
       <c r="D17" t="n">
-        <v>0.268507</v>
+        <v>0.268987</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.265477</v>
+        <v>0.26648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.268804</v>
+        <v>0.268616</v>
       </c>
       <c r="D18" t="n">
-        <v>0.27024</v>
+        <v>0.268634</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268612</v>
+        <v>0.268243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271786</v>
+        <v>0.271805</v>
       </c>
       <c r="D19" t="n">
-        <v>0.274946</v>
+        <v>0.27386</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270217</v>
+        <v>0.270118</v>
       </c>
       <c r="C20" t="n">
-        <v>0.273304</v>
+        <v>0.275262</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276489</v>
+        <v>0.276479</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.27358</v>
+        <v>0.272951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.276937</v>
+        <v>0.277638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28231</v>
+        <v>0.28083</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.277208</v>
+        <v>0.277616</v>
       </c>
       <c r="C22" t="n">
-        <v>0.282239</v>
+        <v>0.28224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.290544</v>
+        <v>0.290009</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.282219</v>
+        <v>0.283517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289045</v>
+        <v>0.288545</v>
       </c>
       <c r="D23" t="n">
-        <v>0.270395</v>
+        <v>0.27081</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.276887</v>
+        <v>0.275622</v>
       </c>
       <c r="C24" t="n">
-        <v>0.267977</v>
+        <v>0.266952</v>
       </c>
       <c r="D24" t="n">
-        <v>0.272813</v>
+        <v>0.271867</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.277166</v>
+        <v>0.277529</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268305</v>
+        <v>0.268068</v>
       </c>
       <c r="D25" t="n">
-        <v>0.271861</v>
+        <v>0.272284</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.276827</v>
+        <v>0.277929</v>
       </c>
       <c r="C26" t="n">
-        <v>0.269436</v>
+        <v>0.270184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273416</v>
+        <v>0.273122</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.278556</v>
+        <v>0.277758</v>
       </c>
       <c r="C27" t="n">
-        <v>0.270768</v>
+        <v>0.271046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274251</v>
+        <v>0.273655</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27997</v>
+        <v>0.28015</v>
       </c>
       <c r="C28" t="n">
-        <v>0.272415</v>
+        <v>0.272581</v>
       </c>
       <c r="D28" t="n">
-        <v>0.276496</v>
+        <v>0.276002</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280511</v>
+        <v>0.280107</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2731</v>
+        <v>0.272783</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276576</v>
+        <v>0.276451</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279894</v>
+        <v>0.281309</v>
       </c>
       <c r="C30" t="n">
-        <v>0.273918</v>
+        <v>0.274349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277661</v>
+        <v>0.277798</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281586</v>
+        <v>0.280802</v>
       </c>
       <c r="C31" t="n">
-        <v>0.274961</v>
+        <v>0.275459</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28081</v>
+        <v>0.280578</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28338</v>
+        <v>0.283837</v>
       </c>
       <c r="C32" t="n">
-        <v>0.278706</v>
+        <v>0.278282</v>
       </c>
       <c r="D32" t="n">
-        <v>0.28116</v>
+        <v>0.282015</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.284053</v>
+        <v>0.284955</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279308</v>
+        <v>0.281132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283459</v>
+        <v>0.284414</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2864</v>
+        <v>0.28631</v>
       </c>
       <c r="C34" t="n">
-        <v>0.281775</v>
+        <v>0.28217</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288575</v>
+        <v>0.287273</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.288711</v>
+        <v>0.288241</v>
       </c>
       <c r="C35" t="n">
-        <v>0.284001</v>
+        <v>0.284864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.292217</v>
+        <v>0.292587</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.292731</v>
+        <v>0.291447</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291134</v>
+        <v>0.289594</v>
       </c>
       <c r="D36" t="n">
-        <v>0.299032</v>
+        <v>0.30034</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.296923</v>
+        <v>0.298396</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297512</v>
+        <v>0.295937</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280341</v>
+        <v>0.282234</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.295111</v>
+        <v>0.294449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.280724</v>
+        <v>0.280181</v>
       </c>
       <c r="D38" t="n">
-        <v>0.281428</v>
+        <v>0.283418</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296538</v>
+        <v>0.295543</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281875</v>
+        <v>0.283953</v>
       </c>
       <c r="D39" t="n">
-        <v>0.285772</v>
+        <v>0.285624</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296065</v>
+        <v>0.292905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283693</v>
+        <v>0.281416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.285558</v>
+        <v>0.282364</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29574</v>
+        <v>0.297088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.285274</v>
+        <v>0.283298</v>
       </c>
       <c r="D41" t="n">
-        <v>0.286345</v>
+        <v>0.284647</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.296712</v>
+        <v>0.296501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.287934</v>
+        <v>0.282962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.289693</v>
+        <v>0.284726</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.297964</v>
+        <v>0.295602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.289978</v>
+        <v>0.283574</v>
       </c>
       <c r="D43" t="n">
-        <v>0.287846</v>
+        <v>0.285994</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.300126</v>
+        <v>0.295802</v>
       </c>
       <c r="C44" t="n">
-        <v>0.29157</v>
+        <v>0.284939</v>
       </c>
       <c r="D44" t="n">
-        <v>0.289252</v>
+        <v>0.286677</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30065</v>
+        <v>0.29489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291244</v>
+        <v>0.285794</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292332</v>
+        <v>0.286188</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303815</v>
+        <v>0.296061</v>
       </c>
       <c r="C46" t="n">
-        <v>0.292106</v>
+        <v>0.287477</v>
       </c>
       <c r="D46" t="n">
-        <v>0.293014</v>
+        <v>0.289044</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.300525</v>
+        <v>0.297511</v>
       </c>
       <c r="C47" t="n">
-        <v>0.29472</v>
+        <v>0.287428</v>
       </c>
       <c r="D47" t="n">
-        <v>0.293937</v>
+        <v>0.29094</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.305521</v>
+        <v>0.296656</v>
       </c>
       <c r="C48" t="n">
-        <v>0.296116</v>
+        <v>0.291488</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298606</v>
+        <v>0.296235</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.307156</v>
+        <v>0.300749</v>
       </c>
       <c r="C49" t="n">
-        <v>0.297234</v>
+        <v>0.295609</v>
       </c>
       <c r="D49" t="n">
-        <v>0.300745</v>
+        <v>0.301314</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309949</v>
+        <v>0.302972</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302411</v>
+        <v>0.301617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.308293</v>
+        <v>0.308735</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.312268</v>
+        <v>0.306604</v>
       </c>
       <c r="C51" t="n">
-        <v>0.306749</v>
+        <v>0.305655</v>
       </c>
       <c r="D51" t="n">
-        <v>0.323683</v>
+        <v>0.313776</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318823</v>
+        <v>0.315737</v>
       </c>
       <c r="C52" t="n">
-        <v>0.316161</v>
+        <v>0.314153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323752</v>
+        <v>0.314559</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.341375</v>
+        <v>0.33172</v>
       </c>
       <c r="C53" t="n">
-        <v>0.324653</v>
+        <v>0.315086</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324197</v>
+        <v>0.315028</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341113</v>
+        <v>0.331203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.326489</v>
+        <v>0.315563</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324662</v>
+        <v>0.315798</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342521</v>
+        <v>0.332041</v>
       </c>
       <c r="C55" t="n">
-        <v>0.327672</v>
+        <v>0.317438</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327205</v>
+        <v>0.313409</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.342958</v>
+        <v>0.332235</v>
       </c>
       <c r="C56" t="n">
-        <v>0.329124</v>
+        <v>0.318023</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327485</v>
+        <v>0.317534</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.343189</v>
+        <v>0.333882</v>
       </c>
       <c r="C57" t="n">
-        <v>0.329445</v>
+        <v>0.318353</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328155</v>
+        <v>0.318082</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.344013</v>
+        <v>0.332697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.331173</v>
+        <v>0.320254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329315</v>
+        <v>0.318465</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.344061</v>
+        <v>0.333612</v>
       </c>
       <c r="C59" t="n">
-        <v>0.331233</v>
+        <v>0.321386</v>
       </c>
       <c r="D59" t="n">
-        <v>0.330301</v>
+        <v>0.320096</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.344286</v>
+        <v>0.333911</v>
       </c>
       <c r="C60" t="n">
-        <v>0.332539</v>
+        <v>0.323943</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332374</v>
+        <v>0.322362</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.34519</v>
+        <v>0.335299</v>
       </c>
       <c r="C61" t="n">
-        <v>0.335373</v>
+        <v>0.324167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.334289</v>
+        <v>0.323446</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.34626</v>
+        <v>0.336277</v>
       </c>
       <c r="C62" t="n">
-        <v>0.336969</v>
+        <v>0.327066</v>
       </c>
       <c r="D62" t="n">
-        <v>0.336539</v>
+        <v>0.327018</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.348319</v>
+        <v>0.338375</v>
       </c>
       <c r="C63" t="n">
-        <v>0.340679</v>
+        <v>0.330146</v>
       </c>
       <c r="D63" t="n">
-        <v>0.341339</v>
+        <v>0.331461</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.350432</v>
+        <v>0.340697</v>
       </c>
       <c r="C64" t="n">
-        <v>0.345187</v>
+        <v>0.334483</v>
       </c>
       <c r="D64" t="n">
-        <v>0.347859</v>
+        <v>0.337725</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.354777</v>
+        <v>0.344334</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350273</v>
+        <v>0.340278</v>
       </c>
       <c r="D65" t="n">
-        <v>0.355906</v>
+        <v>0.346739</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.360582</v>
+        <v>0.349861</v>
       </c>
       <c r="C66" t="n">
-        <v>0.357932</v>
+        <v>0.349095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3513</v>
+        <v>0.341907</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.369895</v>
+        <v>0.363335</v>
       </c>
       <c r="C67" t="n">
-        <v>0.365049</v>
+        <v>0.355541</v>
       </c>
       <c r="D67" t="n">
-        <v>0.354388</v>
+        <v>0.345352</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.373597</v>
+        <v>0.3633</v>
       </c>
       <c r="C68" t="n">
-        <v>0.36725</v>
+        <v>0.354341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.355364</v>
+        <v>0.343893</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.367831</v>
+        <v>0.356082</v>
       </c>
       <c r="C69" t="n">
-        <v>0.365774</v>
+        <v>0.355945</v>
       </c>
       <c r="D69" t="n">
-        <v>0.355834</v>
+        <v>0.345312</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366434</v>
+        <v>0.353012</v>
       </c>
       <c r="C70" t="n">
-        <v>0.370959</v>
+        <v>0.356818</v>
       </c>
       <c r="D70" t="n">
-        <v>0.358898</v>
+        <v>0.347148</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.368007</v>
+        <v>0.356287</v>
       </c>
       <c r="C71" t="n">
-        <v>0.369631</v>
+        <v>0.358319</v>
       </c>
       <c r="D71" t="n">
-        <v>0.358083</v>
+        <v>0.348149</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366576</v>
+        <v>0.356659</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370678</v>
+        <v>0.358981</v>
       </c>
       <c r="D72" t="n">
-        <v>0.359351</v>
+        <v>0.349409</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3704</v>
+        <v>0.359397</v>
       </c>
       <c r="C73" t="n">
-        <v>0.373049</v>
+        <v>0.361335</v>
       </c>
       <c r="D73" t="n">
-        <v>0.362437</v>
+        <v>0.35178</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369822</v>
+        <v>0.357089</v>
       </c>
       <c r="C74" t="n">
-        <v>0.373907</v>
+        <v>0.363189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364237</v>
+        <v>0.353433</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.365341</v>
+        <v>0.356938</v>
       </c>
       <c r="C75" t="n">
-        <v>0.374739</v>
+        <v>0.364701</v>
       </c>
       <c r="D75" t="n">
-        <v>0.364972</v>
+        <v>0.359704</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.367606</v>
+        <v>0.3775</v>
       </c>
       <c r="C76" t="n">
-        <v>0.376265</v>
+        <v>0.367543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.368045</v>
+        <v>0.35959</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.368551</v>
+        <v>0.36226</v>
       </c>
       <c r="C77" t="n">
-        <v>0.379331</v>
+        <v>0.368717</v>
       </c>
       <c r="D77" t="n">
-        <v>0.372739</v>
+        <v>0.362421</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.371712</v>
+        <v>0.359071</v>
       </c>
       <c r="C78" t="n">
-        <v>0.382954</v>
+        <v>0.372005</v>
       </c>
       <c r="D78" t="n">
-        <v>0.378795</v>
+        <v>0.368327</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.372073</v>
+        <v>0.363843</v>
       </c>
       <c r="C79" t="n">
-        <v>0.387506</v>
+        <v>0.377124</v>
       </c>
       <c r="D79" t="n">
-        <v>0.38666</v>
+        <v>0.376637</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.377652</v>
+        <v>0.366859</v>
       </c>
       <c r="C80" t="n">
-        <v>0.395426</v>
+        <v>0.385647</v>
       </c>
       <c r="D80" t="n">
-        <v>0.37665</v>
+        <v>0.367436</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.44779</v>
+        <v>0.423826</v>
       </c>
       <c r="C81" t="n">
-        <v>0.35329</v>
+        <v>0.343685</v>
       </c>
       <c r="D81" t="n">
-        <v>0.378612</v>
+        <v>0.36946</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.44888</v>
+        <v>0.418008</v>
       </c>
       <c r="C82" t="n">
-        <v>0.355405</v>
+        <v>0.340999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.394695</v>
+        <v>0.364506</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.428834</v>
+        <v>0.414175</v>
       </c>
       <c r="C83" t="n">
-        <v>0.35486</v>
+        <v>0.350688</v>
       </c>
       <c r="D83" t="n">
-        <v>0.381675</v>
+        <v>0.37863</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.445258</v>
+        <v>0.454649</v>
       </c>
       <c r="C84" t="n">
-        <v>0.358232</v>
+        <v>0.354993</v>
       </c>
       <c r="D84" t="n">
-        <v>0.386812</v>
+        <v>0.373997</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.447894</v>
+        <v>0.428449</v>
       </c>
       <c r="C85" t="n">
-        <v>0.364621</v>
+        <v>0.3479</v>
       </c>
       <c r="D85" t="n">
-        <v>0.38746</v>
+        <v>0.383418</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.434379</v>
+        <v>0.42386</v>
       </c>
       <c r="C86" t="n">
-        <v>0.362069</v>
+        <v>0.35375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.389147</v>
+        <v>0.380751</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.44851</v>
+        <v>0.425593</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364572</v>
+        <v>0.350026</v>
       </c>
       <c r="D87" t="n">
-        <v>0.387423</v>
+        <v>0.372689</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.452013</v>
+        <v>0.414276</v>
       </c>
       <c r="C88" t="n">
-        <v>0.369779</v>
+        <v>0.353945</v>
       </c>
       <c r="D88" t="n">
-        <v>0.399394</v>
+        <v>0.371222</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.454301</v>
+        <v>0.384214</v>
       </c>
       <c r="C89" t="n">
-        <v>0.373991</v>
+        <v>0.353514</v>
       </c>
       <c r="D89" t="n">
-        <v>0.400974</v>
+        <v>0.375506</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.457294</v>
+        <v>0.415644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.37462</v>
+        <v>0.364659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39468</v>
+        <v>0.388075</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.420544</v>
+        <v>0.423489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.375613</v>
+        <v>0.361673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.402742</v>
+        <v>0.383218</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.440505</v>
+        <v>0.406044</v>
       </c>
       <c r="C92" t="n">
-        <v>0.380525</v>
+        <v>0.367627</v>
       </c>
       <c r="D92" t="n">
-        <v>0.407431</v>
+        <v>0.392436</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.44363</v>
+        <v>0.404112</v>
       </c>
       <c r="C93" t="n">
-        <v>0.388316</v>
+        <v>0.371358</v>
       </c>
       <c r="D93" t="n">
-        <v>0.415011</v>
+        <v>0.395496</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44772</v>
+        <v>0.408076</v>
       </c>
       <c r="C94" t="n">
-        <v>0.397371</v>
+        <v>0.379966</v>
       </c>
       <c r="D94" t="n">
-        <v>0.445286</v>
+        <v>0.394739</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.562457</v>
+        <v>0.487961</v>
       </c>
       <c r="C95" t="n">
-        <v>0.435356</v>
+        <v>0.382201</v>
       </c>
       <c r="D95" t="n">
-        <v>0.487583</v>
+        <v>0.394992</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.601374</v>
+        <v>0.474498</v>
       </c>
       <c r="C96" t="n">
-        <v>0.443813</v>
+        <v>0.369223</v>
       </c>
       <c r="D96" t="n">
-        <v>0.453998</v>
+        <v>0.386376</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.613799</v>
+        <v>0.475647</v>
       </c>
       <c r="C97" t="n">
-        <v>0.467418</v>
+        <v>0.433745</v>
       </c>
       <c r="D97" t="n">
-        <v>0.502824</v>
+        <v>0.407155</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614156</v>
+        <v>0.478427</v>
       </c>
       <c r="C98" t="n">
-        <v>0.459041</v>
+        <v>0.391351</v>
       </c>
       <c r="D98" t="n">
-        <v>0.498945</v>
+        <v>0.395971</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.613199</v>
+        <v>0.452371</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451345</v>
+        <v>0.37547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450462</v>
+        <v>0.388682</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.586843</v>
+        <v>0.438856</v>
       </c>
       <c r="C100" t="n">
-        <v>0.488391</v>
+        <v>0.373155</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4634</v>
+        <v>0.382436</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.585527</v>
+        <v>0.457333</v>
       </c>
       <c r="C101" t="n">
-        <v>0.477549</v>
+        <v>0.38692</v>
       </c>
       <c r="D101" t="n">
-        <v>0.472552</v>
+        <v>0.400899</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.610648</v>
+        <v>0.471647</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444451</v>
+        <v>0.402875</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463643</v>
+        <v>0.39824</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.547995</v>
+        <v>0.472222</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433097</v>
+        <v>0.393712</v>
       </c>
       <c r="D103" t="n">
-        <v>0.450763</v>
+        <v>0.402651</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.559162</v>
+        <v>0.462308</v>
       </c>
       <c r="C104" t="n">
-        <v>0.471245</v>
+        <v>0.387084</v>
       </c>
       <c r="D104" t="n">
-        <v>0.447786</v>
+        <v>0.397996</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.564768</v>
+        <v>0.431202</v>
       </c>
       <c r="C105" t="n">
-        <v>0.443249</v>
+        <v>0.393315</v>
       </c>
       <c r="D105" t="n">
-        <v>0.489554</v>
+        <v>0.407308</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.578183</v>
+        <v>0.478917</v>
       </c>
       <c r="C106" t="n">
-        <v>0.452953</v>
+        <v>0.400484</v>
       </c>
       <c r="D106" t="n">
-        <v>0.462605</v>
+        <v>0.405701</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.559756</v>
+        <v>0.454418</v>
       </c>
       <c r="C107" t="n">
-        <v>0.447806</v>
+        <v>0.40296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.456999</v>
+        <v>0.419168</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5721850000000001</v>
+        <v>0.462437</v>
       </c>
       <c r="C108" t="n">
-        <v>0.501744</v>
+        <v>0.404143</v>
       </c>
       <c r="D108" t="n">
-        <v>0.575662</v>
+        <v>0.458462</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5880339999999999</v>
+        <v>0.473515</v>
       </c>
       <c r="C109" t="n">
-        <v>0.493209</v>
+        <v>0.427484</v>
       </c>
       <c r="D109" t="n">
-        <v>0.562065</v>
+        <v>0.49623</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.660478</v>
+        <v>0.5921959999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.534156</v>
+        <v>0.452823</v>
       </c>
       <c r="D110" t="n">
-        <v>0.562793</v>
+        <v>0.472705</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.672253</v>
+        <v>0.587234</v>
       </c>
       <c r="C111" t="n">
-        <v>0.536583</v>
+        <v>0.466307</v>
       </c>
       <c r="D111" t="n">
-        <v>0.574451</v>
+        <v>0.49176</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.665118</v>
+        <v>0.574334</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54961</v>
+        <v>0.443722</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5726869999999999</v>
+        <v>0.479483</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.662964</v>
+        <v>0.592885</v>
       </c>
       <c r="C113" t="n">
-        <v>0.566713</v>
+        <v>0.493634</v>
       </c>
       <c r="D113" t="n">
-        <v>0.58048</v>
+        <v>0.502524</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.663702</v>
+        <v>0.575488</v>
       </c>
       <c r="C114" t="n">
-        <v>0.552834</v>
+        <v>0.471224</v>
       </c>
       <c r="D114" t="n">
-        <v>0.588205</v>
+        <v>0.490219</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.665729</v>
+        <v>0.578439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557806</v>
+        <v>0.48464</v>
       </c>
       <c r="D115" t="n">
-        <v>0.598444</v>
+        <v>0.470472</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.672446</v>
+        <v>0.567103</v>
       </c>
       <c r="C116" t="n">
-        <v>0.593422</v>
+        <v>0.459397</v>
       </c>
       <c r="D116" t="n">
-        <v>0.603398</v>
+        <v>0.463797</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.685425</v>
+        <v>0.584282</v>
       </c>
       <c r="C117" t="n">
-        <v>0.59379</v>
+        <v>0.497981</v>
       </c>
       <c r="D117" t="n">
-        <v>0.601272</v>
+        <v>0.510474</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.676332</v>
+        <v>0.553182</v>
       </c>
       <c r="C118" t="n">
-        <v>0.579898</v>
+        <v>0.492588</v>
       </c>
       <c r="D118" t="n">
-        <v>0.599452</v>
+        <v>0.506516</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.684377</v>
+        <v>0.602541</v>
       </c>
       <c r="C119" t="n">
-        <v>0.603647</v>
+        <v>0.47253</v>
       </c>
       <c r="D119" t="n">
-        <v>0.620405</v>
+        <v>0.469237</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.688565</v>
+        <v>0.5969680000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.612646</v>
+        <v>0.503927</v>
       </c>
       <c r="D120" t="n">
-        <v>0.623712</v>
+        <v>0.511142</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.68624</v>
+        <v>0.580419</v>
       </c>
       <c r="C121" t="n">
-        <v>0.629802</v>
+        <v>0.512027</v>
       </c>
       <c r="D121" t="n">
-        <v>0.681523</v>
+        <v>0.519131</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.703888</v>
+        <v>0.599315</v>
       </c>
       <c r="C122" t="n">
-        <v>0.665853</v>
+        <v>0.489332</v>
       </c>
       <c r="D122" t="n">
-        <v>0.680273</v>
+        <v>0.495348</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.698846</v>
+        <v>0.6057979999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.623243</v>
+        <v>0.528532</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6943049999999999</v>
+        <v>0.604223</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.771658</v>
+        <v>0.6389</v>
       </c>
       <c r="C124" t="n">
-        <v>0.634472</v>
+        <v>0.557159</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693002</v>
+        <v>0.587865</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.777403</v>
+        <v>0.65601</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6513139999999999</v>
+        <v>0.587168</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699021</v>
+        <v>0.590491</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8380030000000001</v>
+        <v>0.645846</v>
       </c>
       <c r="C126" t="n">
-        <v>0.684087</v>
+        <v>0.560096</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7097830000000001</v>
+        <v>0.58651</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.835776</v>
+        <v>0.628248</v>
       </c>
       <c r="C127" t="n">
-        <v>0.665671</v>
+        <v>0.583072</v>
       </c>
       <c r="D127" t="n">
-        <v>0.724059</v>
+        <v>0.606411</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.809378</v>
+        <v>0.652927</v>
       </c>
       <c r="C128" t="n">
-        <v>0.661415</v>
+        <v>0.567658</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670013</v>
+        <v>0.599774</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.750796</v>
+        <v>0.618691</v>
       </c>
       <c r="C129" t="n">
-        <v>0.642637</v>
+        <v>0.5923349999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.676316</v>
+        <v>0.5882849999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7321299999999999</v>
+        <v>0.676924</v>
       </c>
       <c r="C130" t="n">
-        <v>0.658906</v>
+        <v>0.608201</v>
       </c>
       <c r="D130" t="n">
-        <v>0.701489</v>
+        <v>0.625513</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.754829</v>
+        <v>0.650318</v>
       </c>
       <c r="C131" t="n">
-        <v>0.668404</v>
+        <v>0.6165929999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701113</v>
+        <v>0.639934</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.74613</v>
+        <v>0.644544</v>
       </c>
       <c r="C132" t="n">
-        <v>0.683392</v>
+        <v>0.581335</v>
       </c>
       <c r="D132" t="n">
-        <v>0.669976</v>
+        <v>0.616805</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.74196</v>
+        <v>0.659962</v>
       </c>
       <c r="C133" t="n">
-        <v>0.667214</v>
+        <v>0.625103</v>
       </c>
       <c r="D133" t="n">
-        <v>0.714145</v>
+        <v>0.61171</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.786833</v>
+        <v>0.680111</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.638144</v>
       </c>
       <c r="D134" t="n">
-        <v>0.715717</v>
+        <v>0.656734</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.793578</v>
+        <v>0.72101</v>
       </c>
       <c r="C135" t="n">
-        <v>0.729563</v>
+        <v>0.647898</v>
       </c>
       <c r="D135" t="n">
-        <v>0.752651</v>
+        <v>0.667482</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.789579</v>
+        <v>0.670553</v>
       </c>
       <c r="C136" t="n">
-        <v>0.721539</v>
+        <v>0.648938</v>
       </c>
       <c r="D136" t="n">
-        <v>0.73509</v>
+        <v>0.67176</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.765514</v>
+        <v>0.702103</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7074820000000001</v>
+        <v>0.676652</v>
       </c>
       <c r="D137" t="n">
-        <v>0.745134</v>
+        <v>0.704853</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887576</v>
+        <v>0.851498</v>
       </c>
       <c r="C138" t="n">
-        <v>0.694148</v>
+        <v>0.658334</v>
       </c>
       <c r="D138" t="n">
-        <v>0.744443</v>
+        <v>0.690395</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.88103</v>
+        <v>0.787201</v>
       </c>
       <c r="C139" t="n">
-        <v>0.69642</v>
+        <v>0.652672</v>
       </c>
       <c r="D139" t="n">
-        <v>0.74856</v>
+        <v>0.682803</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.879306</v>
+        <v>0.778433</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7139450000000001</v>
+        <v>0.657945</v>
       </c>
       <c r="D140" t="n">
-        <v>0.760231</v>
+        <v>0.6986</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.876787</v>
+        <v>0.80649</v>
       </c>
       <c r="C141" t="n">
-        <v>0.71487</v>
+        <v>0.672978</v>
       </c>
       <c r="D141" t="n">
-        <v>0.775997</v>
+        <v>0.699168</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.892362</v>
+        <v>0.781324</v>
       </c>
       <c r="C142" t="n">
-        <v>0.719099</v>
+        <v>0.663842</v>
       </c>
       <c r="D142" t="n">
-        <v>0.759173</v>
+        <v>0.694662</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.892911</v>
+        <v>0.804122</v>
       </c>
       <c r="C143" t="n">
-        <v>0.730642</v>
+        <v>0.674997</v>
       </c>
       <c r="D143" t="n">
-        <v>0.772124</v>
+        <v>0.70755</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233202</v>
+        <v>0.264653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237315</v>
+        <v>0.269793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239215</v>
+        <v>0.264886</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.233028</v>
+        <v>0.248612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240462</v>
+        <v>0.251703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239899</v>
+        <v>0.249806</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241218</v>
+        <v>0.251919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248288</v>
+        <v>0.241648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2496</v>
+        <v>0.252925</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247787</v>
+        <v>0.241339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.253732</v>
+        <v>0.247041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257126</v>
+        <v>0.260432</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.247905</v>
+        <v>0.250196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.255592</v>
+        <v>0.245853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260229</v>
+        <v>0.252274</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.252907</v>
+        <v>0.266995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.260106</v>
+        <v>0.266786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.267232</v>
+        <v>0.280119</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.256182</v>
+        <v>0.265442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264883</v>
+        <v>0.272519</v>
       </c>
       <c r="D8" t="n">
-        <v>0.274954</v>
+        <v>0.275548</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263205</v>
+        <v>0.259057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.274339</v>
+        <v>0.266115</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256036</v>
+        <v>0.25473</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.256955</v>
+        <v>0.254246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254666</v>
+        <v>0.2491</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2571</v>
+        <v>0.260117</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.258952</v>
+        <v>0.261389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25607</v>
+        <v>0.245711</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256789</v>
+        <v>0.244604</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260179</v>
+        <v>0.270626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.259696</v>
+        <v>0.26332</v>
       </c>
       <c r="D12" t="n">
-        <v>0.260274</v>
+        <v>0.254752</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.259275</v>
+        <v>0.268063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.258496</v>
+        <v>0.251928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.260735</v>
+        <v>0.274376</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261796</v>
+        <v>0.301603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.26211</v>
+        <v>0.265531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.262623</v>
+        <v>0.284731</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.264019</v>
+        <v>0.281422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.264475</v>
+        <v>0.284745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264855</v>
+        <v>0.296127</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.264844</v>
+        <v>0.311976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265935</v>
+        <v>0.303872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.26575</v>
+        <v>0.288367</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265244</v>
+        <v>0.26435</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26819</v>
+        <v>0.293878</v>
       </c>
       <c r="D17" t="n">
-        <v>0.268987</v>
+        <v>0.316902</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.26648</v>
+        <v>0.302007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.268616</v>
+        <v>0.281189</v>
       </c>
       <c r="D18" t="n">
-        <v>0.268634</v>
+        <v>0.295256</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268243</v>
+        <v>0.300226</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271805</v>
+        <v>0.291157</v>
       </c>
       <c r="D19" t="n">
-        <v>0.27386</v>
+        <v>0.258087</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270118</v>
+        <v>0.26721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.275262</v>
+        <v>0.256602</v>
       </c>
       <c r="D20" t="n">
-        <v>0.276479</v>
+        <v>0.278685</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272951</v>
+        <v>0.283711</v>
       </c>
       <c r="C21" t="n">
-        <v>0.277638</v>
+        <v>0.268113</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28083</v>
+        <v>0.276878</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.277616</v>
+        <v>0.275571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.28224</v>
+        <v>0.272216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.290009</v>
+        <v>0.290204</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283517</v>
+        <v>0.281057</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288545</v>
+        <v>0.295076</v>
       </c>
       <c r="D23" t="n">
-        <v>0.27081</v>
+        <v>0.264266</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.275622</v>
+        <v>0.290312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.266952</v>
+        <v>0.272599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271867</v>
+        <v>0.276333</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.277529</v>
+        <v>0.268448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.268068</v>
+        <v>0.269488</v>
       </c>
       <c r="D25" t="n">
-        <v>0.272284</v>
+        <v>0.276094</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.277929</v>
+        <v>0.287454</v>
       </c>
       <c r="C26" t="n">
-        <v>0.270184</v>
+        <v>0.266108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273122</v>
+        <v>0.271192</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.277758</v>
+        <v>0.30904</v>
       </c>
       <c r="C27" t="n">
-        <v>0.271046</v>
+        <v>0.281176</v>
       </c>
       <c r="D27" t="n">
-        <v>0.273655</v>
+        <v>0.309651</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28015</v>
+        <v>0.322499</v>
       </c>
       <c r="C28" t="n">
-        <v>0.272581</v>
+        <v>0.283208</v>
       </c>
       <c r="D28" t="n">
-        <v>0.276002</v>
+        <v>0.272516</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280107</v>
+        <v>0.314531</v>
       </c>
       <c r="C29" t="n">
-        <v>0.272783</v>
+        <v>0.276346</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276451</v>
+        <v>0.296316</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.281309</v>
+        <v>0.300561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.274349</v>
+        <v>0.301012</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277798</v>
+        <v>0.297267</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.280802</v>
+        <v>0.293475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.275459</v>
+        <v>0.281024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.280578</v>
+        <v>0.300274</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.283837</v>
+        <v>0.316526</v>
       </c>
       <c r="C32" t="n">
-        <v>0.278282</v>
+        <v>0.276201</v>
       </c>
       <c r="D32" t="n">
-        <v>0.282015</v>
+        <v>0.291706</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.284955</v>
+        <v>0.275524</v>
       </c>
       <c r="C33" t="n">
-        <v>0.281132</v>
+        <v>0.315349</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284414</v>
+        <v>0.300574</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.28631</v>
+        <v>0.301081</v>
       </c>
       <c r="C34" t="n">
-        <v>0.28217</v>
+        <v>0.311551</v>
       </c>
       <c r="D34" t="n">
-        <v>0.287273</v>
+        <v>0.308212</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.288241</v>
+        <v>0.326222</v>
       </c>
       <c r="C35" t="n">
-        <v>0.284864</v>
+        <v>0.302303</v>
       </c>
       <c r="D35" t="n">
-        <v>0.292587</v>
+        <v>0.306073</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.291447</v>
+        <v>0.314193</v>
       </c>
       <c r="C36" t="n">
-        <v>0.289594</v>
+        <v>0.296746</v>
       </c>
       <c r="D36" t="n">
-        <v>0.30034</v>
+        <v>0.322535</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.298396</v>
+        <v>0.316067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.295937</v>
+        <v>0.310709</v>
       </c>
       <c r="D37" t="n">
-        <v>0.282234</v>
+        <v>0.305623</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.294449</v>
+        <v>0.331122</v>
       </c>
       <c r="C38" t="n">
-        <v>0.280181</v>
+        <v>0.299161</v>
       </c>
       <c r="D38" t="n">
-        <v>0.283418</v>
+        <v>0.284206</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.295543</v>
+        <v>0.304532</v>
       </c>
       <c r="C39" t="n">
-        <v>0.283953</v>
+        <v>0.289972</v>
       </c>
       <c r="D39" t="n">
-        <v>0.285624</v>
+        <v>0.287949</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.292905</v>
+        <v>0.322429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.281416</v>
+        <v>0.298259</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282364</v>
+        <v>0.30053</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.297088</v>
+        <v>0.330398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.283298</v>
+        <v>0.285304</v>
       </c>
       <c r="D41" t="n">
-        <v>0.284647</v>
+        <v>0.300418</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.296501</v>
+        <v>0.325762</v>
       </c>
       <c r="C42" t="n">
-        <v>0.282962</v>
+        <v>0.29461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.284726</v>
+        <v>0.294299</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.295602</v>
+        <v>0.309548</v>
       </c>
       <c r="C43" t="n">
-        <v>0.283574</v>
+        <v>0.283958</v>
       </c>
       <c r="D43" t="n">
-        <v>0.285994</v>
+        <v>0.290482</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.295802</v>
+        <v>0.312559</v>
       </c>
       <c r="C44" t="n">
-        <v>0.284939</v>
+        <v>0.313427</v>
       </c>
       <c r="D44" t="n">
-        <v>0.286677</v>
+        <v>0.31149</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.29489</v>
+        <v>0.355863</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285794</v>
+        <v>0.338937</v>
       </c>
       <c r="D45" t="n">
-        <v>0.286188</v>
+        <v>0.331259</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.296061</v>
+        <v>0.355052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.287477</v>
+        <v>0.332288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.289044</v>
+        <v>0.33554</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.297511</v>
+        <v>0.367023</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287428</v>
+        <v>0.294699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.29094</v>
+        <v>0.317216</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.296656</v>
+        <v>0.380644</v>
       </c>
       <c r="C48" t="n">
-        <v>0.291488</v>
+        <v>0.348897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.296235</v>
+        <v>0.331858</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.300749</v>
+        <v>0.352733</v>
       </c>
       <c r="C49" t="n">
-        <v>0.295609</v>
+        <v>0.339267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.301314</v>
+        <v>0.335613</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.302972</v>
+        <v>0.313682</v>
       </c>
       <c r="C50" t="n">
-        <v>0.301617</v>
+        <v>0.312088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.308735</v>
+        <v>0.304076</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.306604</v>
+        <v>0.318243</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305655</v>
+        <v>0.295589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.313776</v>
+        <v>0.325436</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.315737</v>
+        <v>0.329469</v>
       </c>
       <c r="C52" t="n">
-        <v>0.314153</v>
+        <v>0.30117</v>
       </c>
       <c r="D52" t="n">
-        <v>0.314559</v>
+        <v>0.344764</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33172</v>
+        <v>0.374379</v>
       </c>
       <c r="C53" t="n">
-        <v>0.315086</v>
+        <v>0.349789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.315028</v>
+        <v>0.339065</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.331203</v>
+        <v>0.357272</v>
       </c>
       <c r="C54" t="n">
-        <v>0.315563</v>
+        <v>0.347727</v>
       </c>
       <c r="D54" t="n">
-        <v>0.315798</v>
+        <v>0.328391</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332041</v>
+        <v>0.348582</v>
       </c>
       <c r="C55" t="n">
-        <v>0.317438</v>
+        <v>0.362832</v>
       </c>
       <c r="D55" t="n">
-        <v>0.313409</v>
+        <v>0.343357</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.332235</v>
+        <v>0.353332</v>
       </c>
       <c r="C56" t="n">
-        <v>0.318023</v>
+        <v>0.340193</v>
       </c>
       <c r="D56" t="n">
-        <v>0.317534</v>
+        <v>0.33439</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333882</v>
+        <v>0.374385</v>
       </c>
       <c r="C57" t="n">
-        <v>0.318353</v>
+        <v>0.338632</v>
       </c>
       <c r="D57" t="n">
-        <v>0.318082</v>
+        <v>0.334202</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.332697</v>
+        <v>0.382965</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320254</v>
+        <v>0.370601</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318465</v>
+        <v>0.395228</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.333612</v>
+        <v>0.427119</v>
       </c>
       <c r="C59" t="n">
-        <v>0.321386</v>
+        <v>0.344082</v>
       </c>
       <c r="D59" t="n">
-        <v>0.320096</v>
+        <v>0.36072</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.333911</v>
+        <v>0.402944</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323943</v>
+        <v>0.401808</v>
       </c>
       <c r="D60" t="n">
-        <v>0.322362</v>
+        <v>0.371797</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.335299</v>
+        <v>0.390095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.324167</v>
+        <v>0.380648</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323446</v>
+        <v>0.381579</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.336277</v>
+        <v>0.421164</v>
       </c>
       <c r="C62" t="n">
-        <v>0.327066</v>
+        <v>0.372608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.327018</v>
+        <v>0.375483</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.338375</v>
+        <v>0.396473</v>
       </c>
       <c r="C63" t="n">
-        <v>0.330146</v>
+        <v>0.394679</v>
       </c>
       <c r="D63" t="n">
-        <v>0.331461</v>
+        <v>0.392253</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.340697</v>
+        <v>0.3852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.334483</v>
+        <v>0.374795</v>
       </c>
       <c r="D64" t="n">
-        <v>0.337725</v>
+        <v>0.379647</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.344334</v>
+        <v>0.389497</v>
       </c>
       <c r="C65" t="n">
-        <v>0.340278</v>
+        <v>0.383862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.346739</v>
+        <v>0.381989</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.349861</v>
+        <v>0.402185</v>
       </c>
       <c r="C66" t="n">
-        <v>0.349095</v>
+        <v>0.391401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.341907</v>
+        <v>0.389352</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363335</v>
+        <v>0.440963</v>
       </c>
       <c r="C67" t="n">
-        <v>0.355541</v>
+        <v>0.416278</v>
       </c>
       <c r="D67" t="n">
-        <v>0.345352</v>
+        <v>0.401983</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3633</v>
+        <v>0.449667</v>
       </c>
       <c r="C68" t="n">
-        <v>0.354341</v>
+        <v>0.417145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.343893</v>
+        <v>0.397648</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.356082</v>
+        <v>0.436062</v>
       </c>
       <c r="C69" t="n">
-        <v>0.355945</v>
+        <v>0.388136</v>
       </c>
       <c r="D69" t="n">
-        <v>0.345312</v>
+        <v>0.379432</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.353012</v>
+        <v>0.421359</v>
       </c>
       <c r="C70" t="n">
-        <v>0.356818</v>
+        <v>0.412574</v>
       </c>
       <c r="D70" t="n">
-        <v>0.347148</v>
+        <v>0.398161</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356287</v>
+        <v>0.424556</v>
       </c>
       <c r="C71" t="n">
-        <v>0.358319</v>
+        <v>0.4266</v>
       </c>
       <c r="D71" t="n">
-        <v>0.348149</v>
+        <v>0.401686</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.356659</v>
+        <v>0.424529</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358981</v>
+        <v>0.414005</v>
       </c>
       <c r="D72" t="n">
-        <v>0.349409</v>
+        <v>0.399538</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.359397</v>
+        <v>0.419511</v>
       </c>
       <c r="C73" t="n">
-        <v>0.361335</v>
+        <v>0.420159</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35178</v>
+        <v>0.400127</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.357089</v>
+        <v>0.429109</v>
       </c>
       <c r="C74" t="n">
-        <v>0.363189</v>
+        <v>0.41912</v>
       </c>
       <c r="D74" t="n">
-        <v>0.353433</v>
+        <v>0.410155</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.356938</v>
+        <v>0.419354</v>
       </c>
       <c r="C75" t="n">
-        <v>0.364701</v>
+        <v>0.428459</v>
       </c>
       <c r="D75" t="n">
-        <v>0.359704</v>
+        <v>0.411632</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3775</v>
+        <v>0.430642</v>
       </c>
       <c r="C76" t="n">
-        <v>0.367543</v>
+        <v>0.425431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.35959</v>
+        <v>0.403121</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.36226</v>
+        <v>0.386313</v>
       </c>
       <c r="C77" t="n">
-        <v>0.368717</v>
+        <v>0.382994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.362421</v>
+        <v>0.382249</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.359071</v>
+        <v>0.392225</v>
       </c>
       <c r="C78" t="n">
-        <v>0.372005</v>
+        <v>0.395415</v>
       </c>
       <c r="D78" t="n">
-        <v>0.368327</v>
+        <v>0.39095</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.363843</v>
+        <v>0.389022</v>
       </c>
       <c r="C79" t="n">
-        <v>0.377124</v>
+        <v>0.399301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.376637</v>
+        <v>0.410089</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.366859</v>
+        <v>0.449455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385647</v>
+        <v>0.430765</v>
       </c>
       <c r="D80" t="n">
-        <v>0.367436</v>
+        <v>0.422499</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.423826</v>
+        <v>0.479078</v>
       </c>
       <c r="C81" t="n">
-        <v>0.343685</v>
+        <v>0.3589</v>
       </c>
       <c r="D81" t="n">
-        <v>0.36946</v>
+        <v>0.407701</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.418008</v>
+        <v>0.452443</v>
       </c>
       <c r="C82" t="n">
-        <v>0.340999</v>
+        <v>0.386359</v>
       </c>
       <c r="D82" t="n">
-        <v>0.364506</v>
+        <v>0.430767</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.414175</v>
+        <v>0.486237</v>
       </c>
       <c r="C83" t="n">
-        <v>0.350688</v>
+        <v>0.416513</v>
       </c>
       <c r="D83" t="n">
-        <v>0.37863</v>
+        <v>0.408313</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.454649</v>
+        <v>0.462542</v>
       </c>
       <c r="C84" t="n">
-        <v>0.354993</v>
+        <v>0.425311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.373997</v>
+        <v>0.47792</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.428449</v>
+        <v>0.484521</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3479</v>
+        <v>0.413855</v>
       </c>
       <c r="D85" t="n">
-        <v>0.383418</v>
+        <v>0.454856</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.42386</v>
+        <v>0.46415</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35375</v>
+        <v>0.361446</v>
       </c>
       <c r="D86" t="n">
-        <v>0.380751</v>
+        <v>0.396046</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.425593</v>
+        <v>0.429535</v>
       </c>
       <c r="C87" t="n">
-        <v>0.350026</v>
+        <v>0.387261</v>
       </c>
       <c r="D87" t="n">
-        <v>0.372689</v>
+        <v>0.395059</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.414276</v>
+        <v>0.422843</v>
       </c>
       <c r="C88" t="n">
-        <v>0.353945</v>
+        <v>0.362435</v>
       </c>
       <c r="D88" t="n">
-        <v>0.371222</v>
+        <v>0.39924</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.384214</v>
+        <v>0.43554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.353514</v>
+        <v>0.36435</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375506</v>
+        <v>0.403145</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.415644</v>
+        <v>0.446205</v>
       </c>
       <c r="C90" t="n">
-        <v>0.364659</v>
+        <v>0.362853</v>
       </c>
       <c r="D90" t="n">
-        <v>0.388075</v>
+        <v>0.409207</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.423489</v>
+        <v>0.444747</v>
       </c>
       <c r="C91" t="n">
-        <v>0.361673</v>
+        <v>0.381029</v>
       </c>
       <c r="D91" t="n">
-        <v>0.383218</v>
+        <v>0.431557</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406044</v>
+        <v>0.434737</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367627</v>
+        <v>0.377438</v>
       </c>
       <c r="D92" t="n">
-        <v>0.392436</v>
+        <v>0.410079</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.404112</v>
+        <v>0.427474</v>
       </c>
       <c r="C93" t="n">
-        <v>0.371358</v>
+        <v>0.379901</v>
       </c>
       <c r="D93" t="n">
-        <v>0.395496</v>
+        <v>0.432733</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.408076</v>
+        <v>0.433284</v>
       </c>
       <c r="C94" t="n">
-        <v>0.379966</v>
+        <v>0.388694</v>
       </c>
       <c r="D94" t="n">
-        <v>0.394739</v>
+        <v>0.403543</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.487961</v>
+        <v>0.467748</v>
       </c>
       <c r="C95" t="n">
-        <v>0.382201</v>
+        <v>0.371431</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394992</v>
+        <v>0.398781</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.474498</v>
+        <v>0.462241</v>
       </c>
       <c r="C96" t="n">
-        <v>0.369223</v>
+        <v>0.379118</v>
       </c>
       <c r="D96" t="n">
-        <v>0.386376</v>
+        <v>0.39553</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.475647</v>
+        <v>0.455878</v>
       </c>
       <c r="C97" t="n">
-        <v>0.433745</v>
+        <v>0.375539</v>
       </c>
       <c r="D97" t="n">
-        <v>0.407155</v>
+        <v>0.48692</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.478427</v>
+        <v>0.505977</v>
       </c>
       <c r="C98" t="n">
-        <v>0.391351</v>
+        <v>0.440951</v>
       </c>
       <c r="D98" t="n">
-        <v>0.395971</v>
+        <v>0.455102</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.452371</v>
+        <v>0.520234</v>
       </c>
       <c r="C99" t="n">
-        <v>0.37547</v>
+        <v>0.459612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.388682</v>
+        <v>0.513257</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.438856</v>
+        <v>0.607332</v>
       </c>
       <c r="C100" t="n">
-        <v>0.373155</v>
+        <v>0.429588</v>
       </c>
       <c r="D100" t="n">
-        <v>0.382436</v>
+        <v>0.468503</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.457333</v>
+        <v>0.7247209999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.38692</v>
+        <v>0.512699</v>
       </c>
       <c r="D101" t="n">
-        <v>0.400899</v>
+        <v>0.520322</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.471647</v>
+        <v>0.564354</v>
       </c>
       <c r="C102" t="n">
-        <v>0.402875</v>
+        <v>0.494931</v>
       </c>
       <c r="D102" t="n">
-        <v>0.39824</v>
+        <v>0.433649</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.472222</v>
+        <v>0.447371</v>
       </c>
       <c r="C103" t="n">
-        <v>0.393712</v>
+        <v>0.405139</v>
       </c>
       <c r="D103" t="n">
-        <v>0.402651</v>
+        <v>0.414417</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.462308</v>
+        <v>0.443341</v>
       </c>
       <c r="C104" t="n">
-        <v>0.387084</v>
+        <v>0.395188</v>
       </c>
       <c r="D104" t="n">
-        <v>0.397996</v>
+        <v>0.421683</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.431202</v>
+        <v>0.450356</v>
       </c>
       <c r="C105" t="n">
-        <v>0.393315</v>
+        <v>0.401351</v>
       </c>
       <c r="D105" t="n">
-        <v>0.407308</v>
+        <v>0.432759</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.478917</v>
+        <v>0.457781</v>
       </c>
       <c r="C106" t="n">
-        <v>0.400484</v>
+        <v>0.423082</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405701</v>
+        <v>0.474629</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.454418</v>
+        <v>0.465408</v>
       </c>
       <c r="C107" t="n">
-        <v>0.40296</v>
+        <v>0.447389</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419168</v>
+        <v>0.488669</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.462437</v>
+        <v>0.5412439999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.404143</v>
+        <v>0.530002</v>
       </c>
       <c r="D108" t="n">
-        <v>0.458462</v>
+        <v>0.61353</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.473515</v>
+        <v>0.540662</v>
       </c>
       <c r="C109" t="n">
-        <v>0.427484</v>
+        <v>0.458537</v>
       </c>
       <c r="D109" t="n">
-        <v>0.49623</v>
+        <v>0.526184</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5921959999999999</v>
+        <v>0.597984</v>
       </c>
       <c r="C110" t="n">
-        <v>0.452823</v>
+        <v>0.482607</v>
       </c>
       <c r="D110" t="n">
-        <v>0.472705</v>
+        <v>0.498555</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.587234</v>
+        <v>0.6627769999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.466307</v>
+        <v>0.5626409999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.49176</v>
+        <v>0.5195419999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.574334</v>
+        <v>0.580844</v>
       </c>
       <c r="C112" t="n">
-        <v>0.443722</v>
+        <v>0.4914</v>
       </c>
       <c r="D112" t="n">
-        <v>0.479483</v>
+        <v>0.496561</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592885</v>
+        <v>0.597776</v>
       </c>
       <c r="C113" t="n">
-        <v>0.493634</v>
+        <v>0.51961</v>
       </c>
       <c r="D113" t="n">
-        <v>0.502524</v>
+        <v>0.588469</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.575488</v>
+        <v>0.7575539999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.471224</v>
+        <v>0.584822</v>
       </c>
       <c r="D114" t="n">
-        <v>0.490219</v>
+        <v>0.598695</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.578439</v>
+        <v>0.684234</v>
       </c>
       <c r="C115" t="n">
-        <v>0.48464</v>
+        <v>0.64722</v>
       </c>
       <c r="D115" t="n">
-        <v>0.470472</v>
+        <v>0.611529</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.567103</v>
+        <v>0.7448630000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.459397</v>
+        <v>0.7276589999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.463797</v>
+        <v>0.628929</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.584282</v>
+        <v>0.756346</v>
       </c>
       <c r="C117" t="n">
-        <v>0.497981</v>
+        <v>0.555343</v>
       </c>
       <c r="D117" t="n">
-        <v>0.510474</v>
+        <v>0.508663</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.553182</v>
+        <v>0.61656</v>
       </c>
       <c r="C118" t="n">
-        <v>0.492588</v>
+        <v>0.509624</v>
       </c>
       <c r="D118" t="n">
-        <v>0.506516</v>
+        <v>0.510955</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.602541</v>
+        <v>0.620671</v>
       </c>
       <c r="C119" t="n">
-        <v>0.47253</v>
+        <v>0.532178</v>
       </c>
       <c r="D119" t="n">
-        <v>0.469237</v>
+        <v>0.539833</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5969680000000001</v>
+        <v>0.652844</v>
       </c>
       <c r="C120" t="n">
-        <v>0.503927</v>
+        <v>0.546086</v>
       </c>
       <c r="D120" t="n">
-        <v>0.511142</v>
+        <v>0.564898</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.580419</v>
+        <v>0.724041</v>
       </c>
       <c r="C121" t="n">
-        <v>0.512027</v>
+        <v>0.543266</v>
       </c>
       <c r="D121" t="n">
-        <v>0.519131</v>
+        <v>0.617685</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.599315</v>
+        <v>0.648811</v>
       </c>
       <c r="C122" t="n">
-        <v>0.489332</v>
+        <v>0.544971</v>
       </c>
       <c r="D122" t="n">
-        <v>0.495348</v>
+        <v>0.554181</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6057979999999999</v>
+        <v>0.6509779999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.528532</v>
+        <v>0.564143</v>
       </c>
       <c r="D123" t="n">
-        <v>0.604223</v>
+        <v>0.685883</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6389</v>
+        <v>0.771664</v>
       </c>
       <c r="C124" t="n">
-        <v>0.557159</v>
+        <v>0.666832</v>
       </c>
       <c r="D124" t="n">
-        <v>0.587865</v>
+        <v>0.665087</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.65601</v>
+        <v>0.82503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.587168</v>
+        <v>0.69094</v>
       </c>
       <c r="D125" t="n">
-        <v>0.590491</v>
+        <v>0.790447</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.645846</v>
+        <v>0.875454</v>
       </c>
       <c r="C126" t="n">
-        <v>0.560096</v>
+        <v>0.750877</v>
       </c>
       <c r="D126" t="n">
-        <v>0.58651</v>
+        <v>0.78228</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.628248</v>
+        <v>0.896641</v>
       </c>
       <c r="C127" t="n">
-        <v>0.583072</v>
+        <v>0.754205</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606411</v>
+        <v>0.880965</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.652927</v>
+        <v>0.903536</v>
       </c>
       <c r="C128" t="n">
-        <v>0.567658</v>
+        <v>0.7611520000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599774</v>
+        <v>0.712049</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.618691</v>
+        <v>0.88064</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5923349999999999</v>
+        <v>0.799322</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.841509</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.676924</v>
+        <v>0.892899</v>
       </c>
       <c r="C130" t="n">
-        <v>0.608201</v>
+        <v>0.80276</v>
       </c>
       <c r="D130" t="n">
-        <v>0.625513</v>
+        <v>0.715081</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.650318</v>
+        <v>0.850042</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6165929999999999</v>
+        <v>0.791242</v>
       </c>
       <c r="D131" t="n">
-        <v>0.639934</v>
+        <v>0.788611</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.644544</v>
+        <v>0.816717</v>
       </c>
       <c r="C132" t="n">
-        <v>0.581335</v>
+        <v>0.757115</v>
       </c>
       <c r="D132" t="n">
-        <v>0.616805</v>
+        <v>0.755037</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.659962</v>
+        <v>0.84139</v>
       </c>
       <c r="C133" t="n">
-        <v>0.625103</v>
+        <v>0.805295</v>
       </c>
       <c r="D133" t="n">
-        <v>0.61171</v>
+        <v>0.922117</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.680111</v>
+        <v>0.9647289999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.638144</v>
+        <v>0.8546899999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.656734</v>
+        <v>0.874119</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.72101</v>
+        <v>0.877368</v>
       </c>
       <c r="C135" t="n">
-        <v>0.647898</v>
+        <v>0.812483</v>
       </c>
       <c r="D135" t="n">
-        <v>0.667482</v>
+        <v>0.788052</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.670553</v>
+        <v>0.788565</v>
       </c>
       <c r="C136" t="n">
-        <v>0.648938</v>
+        <v>0.738785</v>
       </c>
       <c r="D136" t="n">
-        <v>0.67176</v>
+        <v>0.747841</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.702103</v>
+        <v>0.792714</v>
       </c>
       <c r="C137" t="n">
-        <v>0.676652</v>
+        <v>0.746498</v>
       </c>
       <c r="D137" t="n">
-        <v>0.704853</v>
+        <v>0.901797</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.851498</v>
+        <v>1.01937</v>
       </c>
       <c r="C138" t="n">
-        <v>0.658334</v>
+        <v>0.882385</v>
       </c>
       <c r="D138" t="n">
-        <v>0.690395</v>
+        <v>0.973395</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.787201</v>
+        <v>0.985345</v>
       </c>
       <c r="C139" t="n">
-        <v>0.652672</v>
+        <v>0.782479</v>
       </c>
       <c r="D139" t="n">
-        <v>0.682803</v>
+        <v>0.839504</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.778433</v>
+        <v>0.967394</v>
       </c>
       <c r="C140" t="n">
-        <v>0.657945</v>
+        <v>0.847345</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6986</v>
+        <v>0.903955</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.80649</v>
+        <v>1.0607</v>
       </c>
       <c r="C141" t="n">
-        <v>0.672978</v>
+        <v>0.920663</v>
       </c>
       <c r="D141" t="n">
-        <v>0.699168</v>
+        <v>0.945125</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.781324</v>
+        <v>1.12652</v>
       </c>
       <c r="C142" t="n">
-        <v>0.663842</v>
+        <v>0.916615</v>
       </c>
       <c r="D142" t="n">
-        <v>0.694662</v>
+        <v>0.970553</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.804122</v>
+        <v>1.14956</v>
       </c>
       <c r="C143" t="n">
-        <v>0.674997</v>
+        <v>0.894715</v>
       </c>
       <c r="D143" t="n">
-        <v>0.70755</v>
+        <v>0.932762</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered successful looukp.xlsx
+++ b/gcc-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.264653</v>
+        <v>0.241891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.269793</v>
+        <v>0.237473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.264886</v>
+        <v>0.246896</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248612</v>
+        <v>0.241114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.251703</v>
+        <v>0.236896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249806</v>
+        <v>0.246041</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251919</v>
+        <v>0.243215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241648</v>
+        <v>0.23971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252925</v>
+        <v>0.249825</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241339</v>
+        <v>0.2453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.247041</v>
+        <v>0.242945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260432</v>
+        <v>0.253668</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250196</v>
+        <v>0.244568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.245853</v>
+        <v>0.244407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252274</v>
+        <v>0.256362</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.266995</v>
+        <v>0.247126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.266786</v>
+        <v>0.247071</v>
       </c>
       <c r="D7" t="n">
-        <v>0.280119</v>
+        <v>0.261051</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.265442</v>
+        <v>0.250963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.272519</v>
+        <v>0.253294</v>
       </c>
       <c r="D8" t="n">
-        <v>0.275548</v>
+        <v>0.269538</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259057</v>
+        <v>0.258726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266115</v>
+        <v>0.261606</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25473</v>
+        <v>0.246244</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254246</v>
+        <v>0.249724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2491</v>
+        <v>0.239795</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260117</v>
+        <v>0.246133</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.261389</v>
+        <v>0.249641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245711</v>
+        <v>0.239756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244604</v>
+        <v>0.246267</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.270626</v>
+        <v>0.25089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.26332</v>
+        <v>0.241539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254752</v>
+        <v>0.247913</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.268063</v>
+        <v>0.249896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.251928</v>
+        <v>0.241076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274376</v>
+        <v>0.247634</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.301603</v>
+        <v>0.250739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.265531</v>
+        <v>0.242252</v>
       </c>
       <c r="D14" t="n">
-        <v>0.284731</v>
+        <v>0.248914</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281422</v>
+        <v>0.251496</v>
       </c>
       <c r="C15" t="n">
-        <v>0.284745</v>
+        <v>0.243396</v>
       </c>
       <c r="D15" t="n">
-        <v>0.296127</v>
+        <v>0.249961</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.311976</v>
+        <v>0.251886</v>
       </c>
       <c r="C16" t="n">
-        <v>0.303872</v>
+        <v>0.244062</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288367</v>
+        <v>0.251108</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26435</v>
+        <v>0.252256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.293878</v>
+        <v>0.245106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316902</v>
+        <v>0.252047</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.302007</v>
+        <v>0.251643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281189</v>
+        <v>0.245693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.295256</v>
+        <v>0.253258</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.300226</v>
+        <v>0.253907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.291157</v>
+        <v>0.248144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.258087</v>
+        <v>0.256341</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26721</v>
+        <v>0.255582</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256602</v>
+        <v>0.250564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.278685</v>
+        <v>0.259628</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.283711</v>
+        <v>0.256745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.268113</v>
+        <v>0.252301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.276878</v>
+        <v>0.262244</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.275571</v>
+        <v>0.259465</v>
       </c>
       <c r="C22" t="n">
-        <v>0.272216</v>
+        <v>0.255986</v>
       </c>
       <c r="D22" t="n">
-        <v>0.290204</v>
+        <v>0.26866</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.281057</v>
+        <v>0.263736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295076</v>
+        <v>0.261489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264266</v>
+        <v>0.25414</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.290312</v>
+        <v>0.26767</v>
       </c>
       <c r="C24" t="n">
-        <v>0.272599</v>
+        <v>0.242965</v>
       </c>
       <c r="D24" t="n">
-        <v>0.276333</v>
+        <v>0.254578</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268448</v>
+        <v>0.26739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.269488</v>
+        <v>0.24243</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276094</v>
+        <v>0.253958</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.287454</v>
+        <v>0.270464</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266108</v>
+        <v>0.244177</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271192</v>
+        <v>0.254588</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.30904</v>
+        <v>0.270833</v>
       </c>
       <c r="C27" t="n">
-        <v>0.281176</v>
+        <v>0.244922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.309651</v>
+        <v>0.255478</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322499</v>
+        <v>0.271466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.283208</v>
+        <v>0.24687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.272516</v>
+        <v>0.257848</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314531</v>
+        <v>0.270813</v>
       </c>
       <c r="C29" t="n">
-        <v>0.276346</v>
+        <v>0.24741</v>
       </c>
       <c r="D29" t="n">
-        <v>0.296316</v>
+        <v>0.258177</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.300561</v>
+        <v>0.270808</v>
       </c>
       <c r="C30" t="n">
-        <v>0.301012</v>
+        <v>0.24871</v>
       </c>
       <c r="D30" t="n">
-        <v>0.297267</v>
+        <v>0.260153</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.293475</v>
+        <v>0.27259</v>
       </c>
       <c r="C31" t="n">
-        <v>0.281024</v>
+        <v>0.249904</v>
       </c>
       <c r="D31" t="n">
-        <v>0.300274</v>
+        <v>0.261609</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.316526</v>
+        <v>0.273865</v>
       </c>
       <c r="C32" t="n">
-        <v>0.276201</v>
+        <v>0.252017</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291706</v>
+        <v>0.26463</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.275524</v>
+        <v>0.273857</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315349</v>
+        <v>0.254046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.300574</v>
+        <v>0.266793</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.301081</v>
+        <v>0.27471</v>
       </c>
       <c r="C34" t="n">
-        <v>0.311551</v>
+        <v>0.254896</v>
       </c>
       <c r="D34" t="n">
-        <v>0.308212</v>
+        <v>0.269585</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.326222</v>
+        <v>0.275835</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302303</v>
+        <v>0.257632</v>
       </c>
       <c r="D35" t="n">
-        <v>0.306073</v>
+        <v>0.272919</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314193</v>
+        <v>0.278768</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296746</v>
+        <v>0.261616</v>
       </c>
       <c r="D36" t="n">
-        <v>0.322535</v>
+        <v>0.276398</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.316067</v>
+        <v>0.281855</v>
       </c>
       <c r="C37" t="n">
-        <v>0.310709</v>
+        <v>0.268123</v>
       </c>
       <c r="D37" t="n">
-        <v>0.305623</v>
+        <v>0.279166</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331122</v>
+        <v>0.301749</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299161</v>
+        <v>0.265499</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284206</v>
+        <v>0.279625</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304532</v>
+        <v>0.303196</v>
       </c>
       <c r="C39" t="n">
-        <v>0.289972</v>
+        <v>0.265398</v>
       </c>
       <c r="D39" t="n">
-        <v>0.287949</v>
+        <v>0.279059</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.322429</v>
+        <v>0.302784</v>
       </c>
       <c r="C40" t="n">
-        <v>0.298259</v>
+        <v>0.265222</v>
       </c>
       <c r="D40" t="n">
-        <v>0.30053</v>
+        <v>0.278605</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330398</v>
+        <v>0.303003</v>
       </c>
       <c r="C41" t="n">
-        <v>0.285304</v>
+        <v>0.266911</v>
       </c>
       <c r="D41" t="n">
-        <v>0.300418</v>
+        <v>0.281023</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325762</v>
+        <v>0.303213</v>
       </c>
       <c r="C42" t="n">
-        <v>0.29461</v>
+        <v>0.269896</v>
       </c>
       <c r="D42" t="n">
-        <v>0.294299</v>
+        <v>0.281559</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.309548</v>
+        <v>0.30181</v>
       </c>
       <c r="C43" t="n">
-        <v>0.283958</v>
+        <v>0.269597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.290482</v>
+        <v>0.282196</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.312559</v>
+        <v>0.30363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.313427</v>
+        <v>0.270999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31149</v>
+        <v>0.283335</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.355863</v>
+        <v>0.302075</v>
       </c>
       <c r="C45" t="n">
-        <v>0.338937</v>
+        <v>0.272406</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331259</v>
+        <v>0.284512</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.355052</v>
+        <v>0.302632</v>
       </c>
       <c r="C46" t="n">
-        <v>0.332288</v>
+        <v>0.27427</v>
       </c>
       <c r="D46" t="n">
-        <v>0.33554</v>
+        <v>0.286375</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.367023</v>
+        <v>0.303501</v>
       </c>
       <c r="C47" t="n">
-        <v>0.294699</v>
+        <v>0.275091</v>
       </c>
       <c r="D47" t="n">
-        <v>0.317216</v>
+        <v>0.28778</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.380644</v>
+        <v>0.304965</v>
       </c>
       <c r="C48" t="n">
-        <v>0.348897</v>
+        <v>0.277137</v>
       </c>
       <c r="D48" t="n">
-        <v>0.331858</v>
+        <v>0.290481</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.352733</v>
+        <v>0.30662</v>
       </c>
       <c r="C49" t="n">
-        <v>0.339267</v>
+        <v>0.279743</v>
       </c>
       <c r="D49" t="n">
-        <v>0.335613</v>
+        <v>0.293556</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.313682</v>
+        <v>0.308533</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312088</v>
+        <v>0.283365</v>
       </c>
       <c r="D50" t="n">
-        <v>0.304076</v>
+        <v>0.298629</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.318243</v>
+        <v>0.313708</v>
       </c>
       <c r="C51" t="n">
-        <v>0.295589</v>
+        <v>0.287888</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325436</v>
+        <v>0.292677</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.329469</v>
+        <v>0.318755</v>
       </c>
       <c r="C52" t="n">
-        <v>0.30117</v>
+        <v>0.296296</v>
       </c>
       <c r="D52" t="n">
-        <v>0.344764</v>
+        <v>0.291501</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.374379</v>
+        <v>0.33098</v>
       </c>
       <c r="C53" t="n">
-        <v>0.349789</v>
+        <v>0.282548</v>
       </c>
       <c r="D53" t="n">
-        <v>0.339065</v>
+        <v>0.291564</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.357272</v>
+        <v>0.327929</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347727</v>
+        <v>0.281577</v>
       </c>
       <c r="D54" t="n">
-        <v>0.328391</v>
+        <v>0.291738</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.348582</v>
+        <v>0.330479</v>
       </c>
       <c r="C55" t="n">
-        <v>0.362832</v>
+        <v>0.284111</v>
       </c>
       <c r="D55" t="n">
-        <v>0.343357</v>
+        <v>0.294731</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.353332</v>
+        <v>0.327698</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340193</v>
+        <v>0.283984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.33439</v>
+        <v>0.293148</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.374385</v>
+        <v>0.331706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.338632</v>
+        <v>0.282717</v>
       </c>
       <c r="D57" t="n">
-        <v>0.334202</v>
+        <v>0.292391</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.382965</v>
+        <v>0.330873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.370601</v>
+        <v>0.286501</v>
       </c>
       <c r="D58" t="n">
-        <v>0.395228</v>
+        <v>0.294873</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.427119</v>
+        <v>0.3324</v>
       </c>
       <c r="C59" t="n">
-        <v>0.344082</v>
+        <v>0.287563</v>
       </c>
       <c r="D59" t="n">
-        <v>0.36072</v>
+        <v>0.295767</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.402944</v>
+        <v>0.331335</v>
       </c>
       <c r="C60" t="n">
-        <v>0.401808</v>
+        <v>0.28937</v>
       </c>
       <c r="D60" t="n">
-        <v>0.371797</v>
+        <v>0.299372</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.390095</v>
+        <v>0.332581</v>
       </c>
       <c r="C61" t="n">
-        <v>0.380648</v>
+        <v>0.290836</v>
       </c>
       <c r="D61" t="n">
-        <v>0.381579</v>
+        <v>0.299259</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421164</v>
+        <v>0.332211</v>
       </c>
       <c r="C62" t="n">
-        <v>0.372608</v>
+        <v>0.293231</v>
       </c>
       <c r="D62" t="n">
-        <v>0.375483</v>
+        <v>0.302049</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.396473</v>
+        <v>0.333117</v>
       </c>
       <c r="C63" t="n">
-        <v>0.394679</v>
+        <v>0.296081</v>
       </c>
       <c r="D63" t="n">
-        <v>0.392253</v>
+        <v>0.306033</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3852</v>
+        <v>0.334424</v>
       </c>
       <c r="C64" t="n">
-        <v>0.374795</v>
+        <v>0.299613</v>
       </c>
       <c r="D64" t="n">
-        <v>0.379647</v>
+        <v>0.310601</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.389497</v>
+        <v>0.337332</v>
       </c>
       <c r="C65" t="n">
-        <v>0.383862</v>
+        <v>0.304775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.381989</v>
+        <v>0.318387</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.402185</v>
+        <v>0.341721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.391401</v>
+        <v>0.310934</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389352</v>
+        <v>0.300951</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.440963</v>
+        <v>0.3458</v>
       </c>
       <c r="C67" t="n">
-        <v>0.416278</v>
+        <v>0.294365</v>
       </c>
       <c r="D67" t="n">
-        <v>0.401983</v>
+        <v>0.300786</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.449667</v>
+        <v>0.348161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.417145</v>
+        <v>0.294654</v>
       </c>
       <c r="D68" t="n">
-        <v>0.397648</v>
+        <v>0.30068</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.436062</v>
+        <v>0.349238</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388136</v>
+        <v>0.296233</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379432</v>
+        <v>0.30165</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.421359</v>
+        <v>0.34949</v>
       </c>
       <c r="C70" t="n">
-        <v>0.412574</v>
+        <v>0.297049</v>
       </c>
       <c r="D70" t="n">
-        <v>0.398161</v>
+        <v>0.302269</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.424556</v>
+        <v>0.34942</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4266</v>
+        <v>0.298209</v>
       </c>
       <c r="D71" t="n">
-        <v>0.401686</v>
+        <v>0.303182</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.424529</v>
+        <v>0.349808</v>
       </c>
       <c r="C72" t="n">
-        <v>0.414005</v>
+        <v>0.299079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.399538</v>
+        <v>0.304008</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.419511</v>
+        <v>0.350294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.420159</v>
+        <v>0.300621</v>
       </c>
       <c r="D73" t="n">
-        <v>0.400127</v>
+        <v>0.305303</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.429109</v>
+        <v>0.350327</v>
       </c>
       <c r="C74" t="n">
-        <v>0.41912</v>
+        <v>0.302285</v>
       </c>
       <c r="D74" t="n">
-        <v>0.410155</v>
+        <v>0.307199</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.419354</v>
+        <v>0.350645</v>
       </c>
       <c r="C75" t="n">
-        <v>0.428459</v>
+        <v>0.30394</v>
       </c>
       <c r="D75" t="n">
-        <v>0.411632</v>
+        <v>0.308968</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.430642</v>
+        <v>0.351999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.425431</v>
+        <v>0.304948</v>
       </c>
       <c r="D76" t="n">
-        <v>0.403121</v>
+        <v>0.311421</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.386313</v>
+        <v>0.353002</v>
       </c>
       <c r="C77" t="n">
-        <v>0.382994</v>
+        <v>0.30774</v>
       </c>
       <c r="D77" t="n">
-        <v>0.382249</v>
+        <v>0.313964</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.392225</v>
+        <v>0.354091</v>
       </c>
       <c r="C78" t="n">
-        <v>0.395415</v>
+        <v>0.310537</v>
       </c>
       <c r="D78" t="n">
-        <v>0.39095</v>
+        <v>0.318194</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.389022</v>
+        <v>0.35673</v>
       </c>
       <c r="C79" t="n">
-        <v>0.399301</v>
+        <v>0.315843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.410089</v>
+        <v>0.327067</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.449455</v>
+        <v>0.36019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430765</v>
+        <v>0.322354</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422499</v>
+        <v>0.307336</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.479078</v>
+        <v>0.367918</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3589</v>
+        <v>0.287379</v>
       </c>
       <c r="D81" t="n">
-        <v>0.407701</v>
+        <v>0.302656</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.452443</v>
+        <v>0.35904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.386359</v>
+        <v>0.295997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.430767</v>
+        <v>0.310989</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.486237</v>
+        <v>0.369682</v>
       </c>
       <c r="C83" t="n">
-        <v>0.416513</v>
+        <v>0.296652</v>
       </c>
       <c r="D83" t="n">
-        <v>0.408313</v>
+        <v>0.312001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.462542</v>
+        <v>0.369549</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425311</v>
+        <v>0.297758</v>
       </c>
       <c r="D84" t="n">
-        <v>0.47792</v>
+        <v>0.312835</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.484521</v>
+        <v>0.369727</v>
       </c>
       <c r="C85" t="n">
-        <v>0.413855</v>
+        <v>0.298485</v>
       </c>
       <c r="D85" t="n">
-        <v>0.454856</v>
+        <v>0.313185</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.46415</v>
+        <v>0.370259</v>
       </c>
       <c r="C86" t="n">
-        <v>0.361446</v>
+        <v>0.300383</v>
       </c>
       <c r="D86" t="n">
-        <v>0.396046</v>
+        <v>0.314612</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.429535</v>
+        <v>0.370468</v>
       </c>
       <c r="C87" t="n">
-        <v>0.387261</v>
+        <v>0.299671</v>
       </c>
       <c r="D87" t="n">
-        <v>0.395059</v>
+        <v>0.315009</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.422843</v>
+        <v>0.370403</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362435</v>
+        <v>0.304337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.39924</v>
+        <v>0.319401</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.43554</v>
+        <v>0.37352</v>
       </c>
       <c r="C89" t="n">
-        <v>0.36435</v>
+        <v>0.306239</v>
       </c>
       <c r="D89" t="n">
-        <v>0.403145</v>
+        <v>0.319278</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446205</v>
+        <v>0.375983</v>
       </c>
       <c r="C90" t="n">
-        <v>0.362853</v>
+        <v>0.304547</v>
       </c>
       <c r="D90" t="n">
-        <v>0.409207</v>
+        <v>0.321011</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.444747</v>
+        <v>0.372797</v>
       </c>
       <c r="C91" t="n">
-        <v>0.381029</v>
+        <v>0.306602</v>
       </c>
       <c r="D91" t="n">
-        <v>0.431557</v>
+        <v>0.323946</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.434737</v>
+        <v>0.375587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.377438</v>
+        <v>0.310191</v>
       </c>
       <c r="D92" t="n">
-        <v>0.410079</v>
+        <v>0.330725</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.427474</v>
+        <v>0.376496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.379901</v>
+        <v>0.314565</v>
       </c>
       <c r="D93" t="n">
-        <v>0.432733</v>
+        <v>0.335735</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.433284</v>
+        <v>0.380708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388694</v>
+        <v>0.321939</v>
       </c>
       <c r="D94" t="n">
-        <v>0.403543</v>
+        <v>0.411542</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.467748</v>
+        <v>0.567625</v>
       </c>
       <c r="C95" t="n">
-        <v>0.371431</v>
+        <v>0.421449</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398781</v>
+        <v>0.406273</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.462241</v>
+        <v>0.496273</v>
       </c>
       <c r="C96" t="n">
-        <v>0.379118</v>
+        <v>0.463827</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39553</v>
+        <v>0.435559</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.455878</v>
+        <v>0.522405</v>
       </c>
       <c r="C97" t="n">
-        <v>0.375539</v>
+        <v>0.446938</v>
       </c>
       <c r="D97" t="n">
-        <v>0.48692</v>
+        <v>0.43752</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505977</v>
+        <v>0.53729</v>
       </c>
       <c r="C98" t="n">
-        <v>0.440951</v>
+        <v>0.415124</v>
       </c>
       <c r="D98" t="n">
-        <v>0.455102</v>
+        <v>0.417201</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.520234</v>
+        <v>0.477927</v>
       </c>
       <c r="C99" t="n">
-        <v>0.459612</v>
+        <v>0.457013</v>
       </c>
       <c r="D99" t="n">
-        <v>0.513257</v>
+        <v>0.450133</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.607332</v>
+        <v>0.524879</v>
       </c>
       <c r="C100" t="n">
-        <v>0.429588</v>
+        <v>0.469084</v>
       </c>
       <c r="D100" t="n">
-        <v>0.468503</v>
+        <v>0.448899</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7247209999999999</v>
+        <v>0.542468</v>
       </c>
       <c r="C101" t="n">
-        <v>0.512699</v>
+        <v>0.456836</v>
       </c>
       <c r="D101" t="n">
-        <v>0.520322</v>
+        <v>0.444896</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.564354</v>
+        <v>0.523692</v>
       </c>
       <c r="C102" t="n">
-        <v>0.494931</v>
+        <v>0.485939</v>
       </c>
       <c r="D102" t="n">
-        <v>0.433649</v>
+        <v>0.454191</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.447371</v>
+        <v>0.548751</v>
       </c>
       <c r="C103" t="n">
-        <v>0.405139</v>
+        <v>0.456607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.414417</v>
+        <v>0.456038</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.443341</v>
+        <v>0.5467</v>
       </c>
       <c r="C104" t="n">
-        <v>0.395188</v>
+        <v>0.476723</v>
       </c>
       <c r="D104" t="n">
-        <v>0.421683</v>
+        <v>0.462418</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.450356</v>
+        <v>0.546394</v>
       </c>
       <c r="C105" t="n">
-        <v>0.401351</v>
+        <v>0.47334</v>
       </c>
       <c r="D105" t="n">
-        <v>0.432759</v>
+        <v>0.465461</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.457781</v>
+        <v>0.54093</v>
       </c>
       <c r="C106" t="n">
-        <v>0.423082</v>
+        <v>0.434883</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474629</v>
+        <v>0.435831</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.465408</v>
+        <v>0.501914</v>
       </c>
       <c r="C107" t="n">
-        <v>0.447389</v>
+        <v>0.484568</v>
       </c>
       <c r="D107" t="n">
-        <v>0.488669</v>
+        <v>0.471918</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5412439999999999</v>
+        <v>0.54504</v>
       </c>
       <c r="C108" t="n">
-        <v>0.530002</v>
+        <v>0.45999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.61353</v>
+        <v>0.728988</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.540662</v>
+        <v>0.520558</v>
       </c>
       <c r="C109" t="n">
-        <v>0.458537</v>
+        <v>0.467269</v>
       </c>
       <c r="D109" t="n">
-        <v>0.526184</v>
+        <v>0.71457</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.597984</v>
+        <v>0.847799</v>
       </c>
       <c r="C110" t="n">
-        <v>0.482607</v>
+        <v>0.726349</v>
       </c>
       <c r="D110" t="n">
-        <v>0.498555</v>
+        <v>0.718186</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6627769999999999</v>
+        <v>0.847025</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5626409999999999</v>
+        <v>0.709149</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5195419999999999</v>
+        <v>0.732897</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.580844</v>
+        <v>0.852207</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4914</v>
+        <v>0.7101690000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.496561</v>
+        <v>0.732834</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.597776</v>
+        <v>0.846824</v>
       </c>
       <c r="C113" t="n">
-        <v>0.51961</v>
+        <v>0.728716</v>
       </c>
       <c r="D113" t="n">
-        <v>0.588469</v>
+        <v>0.7336510000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7575539999999999</v>
+        <v>0.831744</v>
       </c>
       <c r="C114" t="n">
-        <v>0.584822</v>
+        <v>0.712812</v>
       </c>
       <c r="D114" t="n">
-        <v>0.598695</v>
+        <v>0.735174</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.684234</v>
+        <v>0.849163</v>
       </c>
       <c r="C115" t="n">
-        <v>0.64722</v>
+        <v>0.713583</v>
       </c>
       <c r="D115" t="n">
-        <v>0.611529</v>
+        <v>0.737631</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7448630000000001</v>
+        <v>0.846074</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7276589999999999</v>
+        <v>0.715994</v>
       </c>
       <c r="D116" t="n">
-        <v>0.628929</v>
+        <v>0.73864</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.756346</v>
+        <v>0.850619</v>
       </c>
       <c r="C117" t="n">
-        <v>0.555343</v>
+        <v>0.733855</v>
       </c>
       <c r="D117" t="n">
-        <v>0.508663</v>
+        <v>0.74066</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.61656</v>
+        <v>0.837588</v>
       </c>
       <c r="C118" t="n">
-        <v>0.509624</v>
+        <v>0.73682</v>
       </c>
       <c r="D118" t="n">
-        <v>0.510955</v>
+        <v>0.744236</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.620671</v>
+        <v>0.852781</v>
       </c>
       <c r="C119" t="n">
-        <v>0.532178</v>
+        <v>0.740355</v>
       </c>
       <c r="D119" t="n">
-        <v>0.539833</v>
+        <v>0.74775</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.652844</v>
+        <v>0.837591</v>
       </c>
       <c r="C120" t="n">
-        <v>0.546086</v>
+        <v>0.743985</v>
       </c>
       <c r="D120" t="n">
-        <v>0.564898</v>
+        <v>0.753282</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.724041</v>
+        <v>0.853079</v>
       </c>
       <c r="C121" t="n">
-        <v>0.543266</v>
+        <v>0.749716</v>
       </c>
       <c r="D121" t="n">
-        <v>0.617685</v>
+        <v>0.759817</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.648811</v>
+        <v>0.852328</v>
       </c>
       <c r="C122" t="n">
-        <v>0.544971</v>
+        <v>0.756772</v>
       </c>
       <c r="D122" t="n">
-        <v>0.554181</v>
+        <v>0.76817</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6509779999999999</v>
+        <v>0.853967</v>
       </c>
       <c r="C123" t="n">
-        <v>0.564143</v>
+        <v>0.7662949999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.685883</v>
+        <v>0.845183</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.771664</v>
+        <v>1.1028</v>
       </c>
       <c r="C124" t="n">
-        <v>0.666832</v>
+        <v>0.832936</v>
       </c>
       <c r="D124" t="n">
-        <v>0.665087</v>
+        <v>0.839577</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.82503</v>
+        <v>1.10187</v>
       </c>
       <c r="C125" t="n">
-        <v>0.69094</v>
+        <v>0.833104</v>
       </c>
       <c r="D125" t="n">
-        <v>0.790447</v>
+        <v>0.847457</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.875454</v>
+        <v>1.10198</v>
       </c>
       <c r="C126" t="n">
-        <v>0.750877</v>
+        <v>0.834924</v>
       </c>
       <c r="D126" t="n">
-        <v>0.78228</v>
+        <v>0.848739</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.896641</v>
+        <v>1.10738</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754205</v>
+        <v>0.837207</v>
       </c>
       <c r="D127" t="n">
-        <v>0.880965</v>
+        <v>0.851271</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.903536</v>
+        <v>1.10674</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7611520000000001</v>
+        <v>0.8374779999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.712049</v>
+        <v>0.852043</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.88064</v>
+        <v>1.08677</v>
       </c>
       <c r="C129" t="n">
-        <v>0.799322</v>
+        <v>0.839597</v>
       </c>
       <c r="D129" t="n">
-        <v>0.841509</v>
+        <v>0.855217</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.892899</v>
+        <v>1.10496</v>
       </c>
       <c r="C130" t="n">
-        <v>0.80276</v>
+        <v>0.842154</v>
       </c>
       <c r="D130" t="n">
-        <v>0.715081</v>
+        <v>0.85011</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.850042</v>
+        <v>1.10917</v>
       </c>
       <c r="C131" t="n">
-        <v>0.791242</v>
+        <v>0.8447440000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.788611</v>
+        <v>0.860563</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.816717</v>
+        <v>1.11849</v>
       </c>
       <c r="C132" t="n">
-        <v>0.757115</v>
+        <v>0.841996</v>
       </c>
       <c r="D132" t="n">
-        <v>0.755037</v>
+        <v>0.86491</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.84139</v>
+        <v>1.14311</v>
       </c>
       <c r="C133" t="n">
-        <v>0.805295</v>
+        <v>0.853683</v>
       </c>
       <c r="D133" t="n">
-        <v>0.922117</v>
+        <v>0.863453</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9647289999999999</v>
+        <v>1.08966</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8546899999999999</v>
+        <v>0.858301</v>
       </c>
       <c r="D134" t="n">
-        <v>0.874119</v>
+        <v>0.877108</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.877368</v>
+        <v>1.11424</v>
       </c>
       <c r="C135" t="n">
-        <v>0.812483</v>
+        <v>0.858894</v>
       </c>
       <c r="D135" t="n">
-        <v>0.788052</v>
+        <v>0.885412</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.788565</v>
+        <v>1.11421</v>
       </c>
       <c r="C136" t="n">
-        <v>0.738785</v>
+        <v>0.87385</v>
       </c>
       <c r="D136" t="n">
-        <v>0.747841</v>
+        <v>0.897526</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.792714</v>
+        <v>1.13036</v>
       </c>
       <c r="C137" t="n">
-        <v>0.746498</v>
+        <v>0.886768</v>
       </c>
       <c r="D137" t="n">
-        <v>0.901797</v>
+        <v>0.895404</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.01937</v>
+        <v>1.33985</v>
       </c>
       <c r="C138" t="n">
-        <v>0.882385</v>
+        <v>0.8773030000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.973395</v>
+        <v>0.894276</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.985345</v>
+        <v>1.32236</v>
       </c>
       <c r="C139" t="n">
-        <v>0.782479</v>
+        <v>0.88237</v>
       </c>
       <c r="D139" t="n">
-        <v>0.839504</v>
+        <v>0.896078</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.967394</v>
+        <v>1.33814</v>
       </c>
       <c r="C140" t="n">
-        <v>0.847345</v>
+        <v>0.880005</v>
       </c>
       <c r="D140" t="n">
-        <v>0.903955</v>
+        <v>0.901531</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.0607</v>
+        <v>1.33947</v>
       </c>
       <c r="C141" t="n">
-        <v>0.920663</v>
+        <v>0.883876</v>
       </c>
       <c r="D141" t="n">
-        <v>0.945125</v>
+        <v>0.902214</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.12652</v>
+        <v>1.33929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.916615</v>
+        <v>0.885771</v>
       </c>
       <c r="D142" t="n">
-        <v>0.970553</v>
+        <v>0.904502</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.14956</v>
+        <v>1.33814</v>
       </c>
       <c r="C143" t="n">
-        <v>0.894715</v>
+        <v>0.885885</v>
       </c>
       <c r="D143" t="n">
-        <v>0.932762</v>
+        <v>0.906622</v>
       </c>
     </row>
   </sheetData>
